--- a/medicine/Psychotrope/Paulaner/Paulaner.xlsx
+++ b/medicine/Psychotrope/Paulaner/Paulaner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paulaner (ordre des Minimes, en allemand) est une marque de bière allemande et une brasserie bavaroise, fondée au début du XVIIe siècle à Munich par les moines trappistes  de l'ordre des Minimes du monastère Paulaner de Neudeck. La marque est actuelle propriété de la brasserie allemande Brau Holding International (en), et fait partie des 6 brasseurs officiels de la fête de la bière Oktoberfest de Munich.
 </t>
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La brasserie Paulaner est originaire du monastère Paulaner de Munich des moines de l'ordre des Minimes (fondé en 1436 par saint François de Paule). Les moines trappistes brassaient la bière Paulaner pour leur usage personnel depuis 1634, puis à titre de principal revenus. La bière qui était aussi vendue à l'extérieur les jours de fête était un modèle de bock qui a gagné une renommée locale. 
 			Monastère Paulaner de Munich, en 1702.
@@ -551,6 +565,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
